--- a/result.xlsx
+++ b/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Gskyline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>anti_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pointwise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>outofmem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>corr_8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,15 +62,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>inde_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inde_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>inde_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inde_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inde_8</t>
+    <t>结果集大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,23 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anti_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anti_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outofmem</t>
+    <t>58060/outofmem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,9 +124,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +177,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -177,7 +203,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,13 +465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
@@ -455,19 +485,19 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -525,421 +555,575 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1214</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+        <v>248</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31263</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>1314</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6855</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9591</v>
+      </c>
+      <c r="C5" s="2">
+        <v>455948</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16124719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2">
-        <v>246</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4604</v>
-      </c>
-      <c r="J7" s="2">
-        <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1579</v>
-      </c>
-      <c r="O7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="I8" s="2">
-        <v>1846</v>
+        <v>1929</v>
       </c>
       <c r="J8" s="2">
-        <v>242</v>
-      </c>
-      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>15044</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="2">
+        <v>245</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2">
+        <v>125</v>
+      </c>
+      <c r="I9" s="2">
+        <v>463</v>
+      </c>
+      <c r="J9" s="2">
+        <v>122</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4790</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3166</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>595</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7598</v>
+      </c>
+      <c r="H10" s="2">
+        <v>71669</v>
+      </c>
+      <c r="I10" s="2">
+        <v>556485</v>
+      </c>
+      <c r="J10" s="2">
+        <v>81406</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1103329</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="N10" s="2">
+        <v>1154440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="2">
-        <v>6192</v>
-      </c>
-      <c r="O8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2010</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2">
-        <v>871</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="2">
-        <v>6137</v>
-      </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>14</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>455</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2">
+        <v>94</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2">
-        <v>55</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2027</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1312</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="2">
-        <v>35870</v>
-      </c>
-      <c r="O12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>14</v>
+      <c r="L13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3534</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2">
+        <v>458</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="2">
+        <v>774</v>
+      </c>
+      <c r="K14" s="2">
+        <v>40306</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="2">
+        <v>20200</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2">
+        <v>433</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1150</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14706</v>
+      </c>
+      <c r="G15" s="2">
+        <v>852147</v>
+      </c>
+      <c r="J15" s="2">
+        <v>392941</v>
+      </c>
+      <c r="K15" s="2">
+        <v>116343106</v>
+      </c>
+      <c r="N15" s="2">
+        <v>3901821</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:R11"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
